--- a/Code/Results/Cases/Case_0_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014650962794642</v>
+        <v>1.06857615587679</v>
       </c>
       <c r="D2">
-        <v>1.028904154514489</v>
+        <v>1.07770985698997</v>
       </c>
       <c r="E2">
-        <v>1.018189767814071</v>
+        <v>1.063204140654213</v>
       </c>
       <c r="F2">
-        <v>1.033943487861577</v>
+        <v>1.083722961351984</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047987062815106</v>
+        <v>1.045368216597133</v>
       </c>
       <c r="J2">
-        <v>1.036402125417935</v>
+        <v>1.073515261071374</v>
       </c>
       <c r="K2">
-        <v>1.039974975953797</v>
+        <v>1.080390442426415</v>
       </c>
       <c r="L2">
-        <v>1.029401375783126</v>
+        <v>1.065923413181704</v>
       </c>
       <c r="M2">
-        <v>1.044949354055735</v>
+        <v>1.08638783758129</v>
       </c>
       <c r="N2">
-        <v>1.037873935313014</v>
+        <v>1.075039775876017</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023470840311117</v>
+        <v>1.070282543834819</v>
       </c>
       <c r="D3">
-        <v>1.037153689306573</v>
+        <v>1.079353904945833</v>
       </c>
       <c r="E3">
-        <v>1.025636184526673</v>
+        <v>1.064684570457173</v>
       </c>
       <c r="F3">
-        <v>1.042369510805117</v>
+        <v>1.085408002656506</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050544669673748</v>
+        <v>1.045759729291559</v>
       </c>
       <c r="J3">
-        <v>1.043341492267559</v>
+        <v>1.074874907245315</v>
       </c>
       <c r="K3">
-        <v>1.047332267079393</v>
+        <v>1.081850220615813</v>
       </c>
       <c r="L3">
-        <v>1.035951225754179</v>
+        <v>1.067217138152889</v>
       </c>
       <c r="M3">
-        <v>1.05248751551008</v>
+        <v>1.087889663993227</v>
       </c>
       <c r="N3">
-        <v>1.044823156859521</v>
+        <v>1.076401352903478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028982882405534</v>
+        <v>1.071384231814859</v>
       </c>
       <c r="D4">
-        <v>1.042314711772079</v>
+        <v>1.080415557570573</v>
       </c>
       <c r="E4">
-        <v>1.030295525230216</v>
+        <v>1.065640453174503</v>
       </c>
       <c r="F4">
-        <v>1.04764179533376</v>
+        <v>1.08649622241468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05212840182989</v>
+        <v>1.04601060252483</v>
       </c>
       <c r="J4">
-        <v>1.047673176745646</v>
+        <v>1.075751880320371</v>
       </c>
       <c r="K4">
-        <v>1.05192791178246</v>
+        <v>1.082792156361305</v>
       </c>
       <c r="L4">
-        <v>1.040041558748921</v>
+        <v>1.068051700978114</v>
       </c>
       <c r="M4">
-        <v>1.057197316666419</v>
+        <v>1.088858854783705</v>
       </c>
       <c r="N4">
-        <v>1.049160992826418</v>
+        <v>1.077279571380891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031256494432808</v>
+        <v>1.07184680564474</v>
       </c>
       <c r="D5">
-        <v>1.044444746576101</v>
+        <v>1.080861371791513</v>
       </c>
       <c r="E5">
-        <v>1.032218655994295</v>
+        <v>1.066041824736313</v>
       </c>
       <c r="F5">
-        <v>1.049817951950292</v>
+        <v>1.086953215682903</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052778071806836</v>
+        <v>1.04611548382185</v>
       </c>
       <c r="J5">
-        <v>1.049458610402529</v>
+        <v>1.076119897623422</v>
       </c>
       <c r="K5">
-        <v>1.053822884739903</v>
+        <v>1.083187525337855</v>
       </c>
       <c r="L5">
-        <v>1.041727925810864</v>
+        <v>1.068401946994975</v>
       </c>
       <c r="M5">
-        <v>1.059139640034415</v>
+        <v>1.089265693260853</v>
       </c>
       <c r="N5">
-        <v>1.050948962003886</v>
+        <v>1.077648111310725</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031635766849607</v>
+        <v>1.071924440434828</v>
       </c>
       <c r="D6">
-        <v>1.044800137010672</v>
+        <v>1.080936196712166</v>
       </c>
       <c r="E6">
-        <v>1.032539532811418</v>
+        <v>1.066109188847647</v>
       </c>
       <c r="F6">
-        <v>1.050181049540414</v>
+        <v>1.087029918221363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052886233313159</v>
+        <v>1.04613305960247</v>
       </c>
       <c r="J6">
-        <v>1.049756368636595</v>
+        <v>1.076181650814722</v>
       </c>
       <c r="K6">
-        <v>1.054138954493952</v>
+        <v>1.083253873436721</v>
       </c>
       <c r="L6">
-        <v>1.042009186516695</v>
+        <v>1.068460719688663</v>
       </c>
       <c r="M6">
-        <v>1.059463623861906</v>
+        <v>1.089333967818873</v>
       </c>
       <c r="N6">
-        <v>1.051247143088797</v>
+        <v>1.07770995219864</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029013430250142</v>
+        <v>1.071390414993717</v>
       </c>
       <c r="D7">
-        <v>1.042343325850332</v>
+        <v>1.080421516528397</v>
       </c>
       <c r="E7">
-        <v>1.030321359295919</v>
+        <v>1.065645818198842</v>
       </c>
       <c r="F7">
-        <v>1.047671028195683</v>
+        <v>1.086502330706973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052137144990214</v>
+        <v>1.046012006250796</v>
       </c>
       <c r="J7">
-        <v>1.047697170771436</v>
+        <v>1.075756800373302</v>
       </c>
       <c r="K7">
-        <v>1.051953374947479</v>
+        <v>1.082797441725359</v>
       </c>
       <c r="L7">
-        <v>1.040064219823154</v>
+        <v>1.068056383343391</v>
       </c>
       <c r="M7">
-        <v>1.057223414988134</v>
+        <v>1.088864293358375</v>
       </c>
       <c r="N7">
-        <v>1.049185020926476</v>
+        <v>1.077284498420862</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017673986726629</v>
+        <v>1.06915335466437</v>
       </c>
       <c r="D8">
-        <v>1.031730487710365</v>
+        <v>1.078265924240641</v>
       </c>
       <c r="E8">
-        <v>1.020740765548321</v>
+        <v>1.063704890420958</v>
       </c>
       <c r="F8">
-        <v>1.036830106308748</v>
+        <v>1.084292874009708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048866744449088</v>
+        <v>1.045501041974179</v>
       </c>
       <c r="J8">
-        <v>1.038781637644695</v>
+        <v>1.073975347680123</v>
       </c>
       <c r="K8">
-        <v>1.042497141110138</v>
+        <v>1.080884334125436</v>
       </c>
       <c r="L8">
-        <v>1.031646932010465</v>
+        <v>1.066361170215214</v>
       </c>
       <c r="M8">
-        <v>1.047533271781611</v>
+        <v>1.08689593006817</v>
       </c>
       <c r="N8">
-        <v>1.04025682672007</v>
+        <v>1.075500515860524</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9960439421668719</v>
+        <v>1.065191952553679</v>
       </c>
       <c r="D9">
-        <v>1.011535722383586</v>
+        <v>1.074450453738555</v>
       </c>
       <c r="E9">
-        <v>1.002518288930703</v>
+        <v>1.06026853037189</v>
       </c>
       <c r="F9">
-        <v>1.016208363484756</v>
+        <v>1.080382795982733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042511775968517</v>
+        <v>1.044581645540955</v>
       </c>
       <c r="J9">
-        <v>1.021737176655239</v>
+        <v>1.070814224165494</v>
       </c>
       <c r="K9">
-        <v>1.024444372565829</v>
+        <v>1.077492500119106</v>
       </c>
       <c r="L9">
-        <v>1.015570640359918</v>
+        <v>1.06335392169161</v>
       </c>
       <c r="M9">
-        <v>1.029043833026942</v>
+        <v>1.083407078807398</v>
       </c>
       <c r="N9">
-        <v>1.023188160640982</v>
+        <v>1.072334903187917</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9802632660135726</v>
+        <v>1.062537146503681</v>
       </c>
       <c r="D10">
-        <v>0.9968438690207717</v>
+        <v>1.071894609341644</v>
       </c>
       <c r="E10">
-        <v>0.9892698508115368</v>
+        <v>1.057966082247328</v>
       </c>
       <c r="F10">
-        <v>1.001210850895012</v>
+        <v>1.077764072024835</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037801199934643</v>
+        <v>1.043955708173213</v>
       </c>
       <c r="J10">
-        <v>1.009282439024932</v>
+        <v>1.068691381738865</v>
       </c>
       <c r="K10">
-        <v>1.011270343170747</v>
+        <v>1.075216679173049</v>
       </c>
       <c r="L10">
-        <v>1.003835582242202</v>
+        <v>1.061334991708064</v>
       </c>
       <c r="M10">
-        <v>1.015558277416372</v>
+        <v>1.0810668013633</v>
       </c>
       <c r="N10">
-        <v>1.010715735854661</v>
+        <v>1.070209046081549</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9730378497948768</v>
+        <v>1.061384113324555</v>
       </c>
       <c r="D11">
-        <v>0.990129050969952</v>
+        <v>1.070784841864867</v>
       </c>
       <c r="E11">
-        <v>0.9832175936375422</v>
+        <v>1.056966213446159</v>
       </c>
       <c r="F11">
-        <v>0.9943575601643602</v>
+        <v>1.076627119169839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035628264845464</v>
+        <v>1.043681535097239</v>
       </c>
       <c r="J11">
-        <v>1.003576952555498</v>
+        <v>1.06776836266352</v>
       </c>
       <c r="K11">
-        <v>1.005239551050071</v>
+        <v>1.074227607706772</v>
       </c>
       <c r="L11">
-        <v>0.9984630966276257</v>
+        <v>1.06045729317896</v>
       </c>
       <c r="M11">
-        <v>1.009386674918184</v>
+        <v>1.080049869000018</v>
       </c>
       <c r="N11">
-        <v>1.005002146940012</v>
+        <v>1.069284716213246</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9702878981021509</v>
+        <v>1.060955286099508</v>
       </c>
       <c r="D12">
-        <v>0.9875754592469829</v>
+        <v>1.070372149221565</v>
       </c>
       <c r="E12">
-        <v>0.9809164805503847</v>
+        <v>1.056594370267983</v>
       </c>
       <c r="F12">
-        <v>0.99175149742197</v>
+        <v>1.076204334666489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034798985567986</v>
+        <v>1.043579219142487</v>
       </c>
       <c r="J12">
-        <v>1.001405219202979</v>
+        <v>1.067424926561356</v>
       </c>
       <c r="K12">
-        <v>1.002944628794892</v>
+        <v>1.073859664452387</v>
       </c>
       <c r="L12">
-        <v>0.9964186565313254</v>
+        <v>1.060130740960965</v>
       </c>
       <c r="M12">
-        <v>1.007038450483928</v>
+        <v>1.079671584091073</v>
       </c>
       <c r="N12">
-        <v>1.002827329477031</v>
+        <v>1.068940792392424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9708808926850374</v>
+        <v>1.061047295658307</v>
       </c>
       <c r="D13">
-        <v>0.9881260157939696</v>
+        <v>1.070460694948078</v>
       </c>
       <c r="E13">
-        <v>0.9814125779365801</v>
+        <v>1.056674152341822</v>
       </c>
       <c r="F13">
-        <v>0.992313358155682</v>
+        <v>1.076295044864471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034977909686327</v>
+        <v>1.043601187867376</v>
       </c>
       <c r="J13">
-        <v>1.001873536329995</v>
+        <v>1.067498621480943</v>
       </c>
       <c r="K13">
-        <v>1.003439481912808</v>
+        <v>1.07393861499868</v>
       </c>
       <c r="L13">
-        <v>0.9968594987900637</v>
+        <v>1.060200811961739</v>
       </c>
       <c r="M13">
-        <v>1.00754478426956</v>
+        <v>1.079752752639363</v>
       </c>
       <c r="N13">
-        <v>1.003296311668084</v>
+        <v>1.069014591967249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9728119325381668</v>
+        <v>1.061348677427408</v>
       </c>
       <c r="D14">
-        <v>0.989919222875728</v>
+        <v>1.070750738347732</v>
       </c>
       <c r="E14">
-        <v>0.9830285007741313</v>
+        <v>1.056935485973316</v>
       </c>
       <c r="F14">
-        <v>0.9941434166803821</v>
+        <v>1.076592181335714</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035560181983308</v>
+        <v>1.043673087361717</v>
       </c>
       <c r="J14">
-        <v>1.003398541877429</v>
+        <v>1.067739986150444</v>
       </c>
       <c r="K14">
-        <v>1.005051007361027</v>
+        <v>1.074197204864621</v>
       </c>
       <c r="L14">
-        <v>0.9982951320633385</v>
+        <v>1.060430311271721</v>
       </c>
       <c r="M14">
-        <v>1.009193746333278</v>
+        <v>1.080018611169722</v>
       </c>
       <c r="N14">
-        <v>1.004823482898316</v>
+        <v>1.069256299402266</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9739927137611926</v>
+        <v>1.061534296734732</v>
       </c>
       <c r="D15">
-        <v>0.9910159959821091</v>
+        <v>1.070929380206435</v>
       </c>
       <c r="E15">
-        <v>0.9840169119558977</v>
+        <v>1.057096442584704</v>
       </c>
       <c r="F15">
-        <v>0.9952627540605087</v>
+        <v>1.076775194256146</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035915933294664</v>
+        <v>1.043717323823472</v>
       </c>
       <c r="J15">
-        <v>1.00433101543456</v>
+        <v>1.067888620894544</v>
       </c>
       <c r="K15">
-        <v>1.006036467460809</v>
+        <v>1.074356456264786</v>
       </c>
       <c r="L15">
-        <v>0.9991730305695373</v>
+        <v>1.060571642003476</v>
       </c>
       <c r="M15">
-        <v>1.010202136401158</v>
+        <v>1.080182341969765</v>
       </c>
       <c r="N15">
-        <v>1.005757280674854</v>
+        <v>1.069405145224751</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9807339434069462</v>
+        <v>1.062613594753084</v>
       </c>
       <c r="D16">
-        <v>0.9972815508717587</v>
+        <v>1.071968195050867</v>
       </c>
       <c r="E16">
-        <v>0.9896644114750641</v>
+        <v>1.058032378204946</v>
       </c>
       <c r="F16">
-        <v>1.001657584257819</v>
+        <v>1.077839462795623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037942429081042</v>
+        <v>1.043973837646765</v>
       </c>
       <c r="J16">
-        <v>1.009654059807333</v>
+        <v>1.068752558034196</v>
       </c>
       <c r="K16">
-        <v>1.011663239197693</v>
+        <v>1.075282243060681</v>
       </c>
       <c r="L16">
-        <v>1.00418558499944</v>
+        <v>1.061393167165855</v>
       </c>
       <c r="M16">
-        <v>1.015960384912215</v>
+        <v>1.08113421530056</v>
       </c>
       <c r="N16">
-        <v>1.011087884381199</v>
+        <v>1.070270309254236</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9848528210352469</v>
+        <v>1.063289665820089</v>
       </c>
       <c r="D17">
-        <v>1.001113060860545</v>
+        <v>1.07261898414504</v>
       </c>
       <c r="E17">
-        <v>0.9931187635321314</v>
+        <v>1.058618682306001</v>
       </c>
       <c r="F17">
-        <v>1.005568470220331</v>
+        <v>1.078506229328382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03917652696099</v>
+        <v>1.04413389874561</v>
       </c>
       <c r="J17">
-        <v>1.012905790434423</v>
+        <v>1.069293452882404</v>
       </c>
       <c r="K17">
-        <v>1.015101602193809</v>
+        <v>1.075861984528186</v>
       </c>
       <c r="L17">
-        <v>1.007248531180935</v>
+        <v>1.061907545932369</v>
       </c>
       <c r="M17">
-        <v>1.019479563386262</v>
+        <v>1.081730333144322</v>
       </c>
       <c r="N17">
-        <v>1.014344232838759</v>
+        <v>1.07081197223517</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9872179876155258</v>
+        <v>1.063683671496067</v>
       </c>
       <c r="D18">
-        <v>1.003314323399902</v>
+        <v>1.072998283181778</v>
       </c>
       <c r="E18">
-        <v>0.9951036038270217</v>
+        <v>1.058960385243426</v>
       </c>
       <c r="F18">
-        <v>1.007815449727599</v>
+        <v>1.078894851796125</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039883663041444</v>
+        <v>1.044226957199257</v>
       </c>
       <c r="J18">
-        <v>1.014772735462854</v>
+        <v>1.069608580534457</v>
       </c>
       <c r="K18">
-        <v>1.01707609149702</v>
+        <v>1.076199788969892</v>
       </c>
       <c r="L18">
-        <v>1.009007394106267</v>
+        <v>1.062207238575595</v>
       </c>
       <c r="M18">
-        <v>1.021500628336463</v>
+        <v>1.082077694413752</v>
       </c>
       <c r="N18">
-        <v>1.016213829143271</v>
+        <v>1.071127547404636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9880183191434692</v>
+        <v>1.06381796088069</v>
       </c>
       <c r="D19">
-        <v>1.0040593750661</v>
+        <v>1.073127564707013</v>
       </c>
       <c r="E19">
-        <v>0.9957754460274106</v>
+        <v>1.059076850286779</v>
       </c>
       <c r="F19">
-        <v>1.008575994267197</v>
+        <v>1.079027313068101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040122684602379</v>
+        <v>1.04425863655423</v>
       </c>
       <c r="J19">
-        <v>1.015404424596345</v>
+        <v>1.069715969024229</v>
       </c>
       <c r="K19">
-        <v>1.017744234992477</v>
+        <v>1.076314912767742</v>
       </c>
       <c r="L19">
-        <v>1.009602564033876</v>
+        <v>1.062309369421399</v>
       </c>
       <c r="M19">
-        <v>1.022184560541309</v>
+        <v>1.082196077659078</v>
       </c>
       <c r="N19">
-        <v>1.016846415347788</v>
+        <v>1.07123508839838</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9844148110421473</v>
+        <v>1.063217164572275</v>
       </c>
       <c r="D20">
-        <v>1.000705493222819</v>
+        <v>1.072549191275149</v>
       </c>
       <c r="E20">
-        <v>0.9927512874739485</v>
+        <v>1.058555806304641</v>
       </c>
       <c r="F20">
-        <v>1.005152447240569</v>
+        <v>1.07843472181257</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039045447086792</v>
+        <v>1.044116757023002</v>
       </c>
       <c r="J20">
-        <v>1.012560022959944</v>
+        <v>1.06923545805292</v>
       </c>
       <c r="K20">
-        <v>1.014735948716093</v>
+        <v>1.075799819944816</v>
       </c>
       <c r="L20">
-        <v>1.006922805636363</v>
+        <v>1.061852392776156</v>
       </c>
       <c r="M20">
-        <v>1.019105298107954</v>
+        <v>1.081666411039881</v>
       </c>
       <c r="N20">
-        <v>1.013997974334805</v>
+        <v>1.070753895046376</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9722451783258816</v>
+        <v>1.061259943025219</v>
       </c>
       <c r="D21">
-        <v>0.9893928646082633</v>
+        <v>1.070665341040359</v>
       </c>
       <c r="E21">
-        <v>0.9825541658035232</v>
+        <v>1.056858542184804</v>
       </c>
       <c r="F21">
-        <v>0.9936062362186614</v>
+        <v>1.076504695132292</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035389347892843</v>
+        <v>1.043651927924582</v>
       </c>
       <c r="J21">
-        <v>1.002950962999521</v>
+        <v>1.06766892654226</v>
       </c>
       <c r="K21">
-        <v>1.004578018013696</v>
+        <v>1.074121072107445</v>
       </c>
       <c r="L21">
-        <v>0.9978737681743491</v>
+        <v>1.060362744333984</v>
       </c>
       <c r="M21">
-        <v>1.008709761385793</v>
+        <v>1.07994033777757</v>
       </c>
       <c r="N21">
-        <v>1.004375268407064</v>
+        <v>1.069185138881287</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9642066174407122</v>
+        <v>1.06002623160189</v>
       </c>
       <c r="D22">
-        <v>0.9819324366938493</v>
+        <v>1.06947813078802</v>
       </c>
       <c r="E22">
-        <v>0.9758324450868071</v>
+        <v>1.055788810060623</v>
       </c>
       <c r="F22">
-        <v>0.9859928780234365</v>
+        <v>1.075288486481994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032961088885066</v>
+        <v>1.043356915983291</v>
       </c>
       <c r="J22">
-        <v>0.9966023641241362</v>
+        <v>1.066680590838228</v>
       </c>
       <c r="K22">
-        <v>0.997870518275759</v>
+        <v>1.07306234117604</v>
       </c>
       <c r="L22">
-        <v>0.9918983654250831</v>
+        <v>1.059423036721592</v>
       </c>
       <c r="M22">
-        <v>1.001847021068718</v>
+        <v>1.078851892550785</v>
       </c>
       <c r="N22">
-        <v>0.9980176537930813</v>
+        <v>1.068195399627193</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9685074383048402</v>
+        <v>1.060680547250201</v>
       </c>
       <c r="D23">
-        <v>0.9859227353213053</v>
+        <v>1.070107759744592</v>
       </c>
       <c r="E23">
-        <v>0.9794273205662816</v>
+        <v>1.05635614551876</v>
       </c>
       <c r="F23">
-        <v>0.9900648674173853</v>
+        <v>1.075933484860117</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034261447436125</v>
+        <v>1.043513570063298</v>
       </c>
       <c r="J23">
-        <v>0.999999079558646</v>
+        <v>1.067204852380672</v>
       </c>
       <c r="K23">
-        <v>1.001458907365917</v>
+        <v>1.073623905646498</v>
       </c>
       <c r="L23">
-        <v>0.9950950939516841</v>
+        <v>1.059921491938012</v>
       </c>
       <c r="M23">
-        <v>1.005518302205592</v>
+        <v>1.079429205327726</v>
       </c>
       <c r="N23">
-        <v>1.001419192953117</v>
+        <v>1.06872040568116</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9846128436606542</v>
+        <v>1.063249925800822</v>
       </c>
       <c r="D24">
-        <v>1.000889758838433</v>
+        <v>1.072580728581044</v>
       </c>
       <c r="E24">
-        <v>0.9929174264593006</v>
+        <v>1.058584218123172</v>
       </c>
       <c r="F24">
-        <v>1.005340535250331</v>
+        <v>1.078467033880601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039104715505355</v>
+        <v>1.044124503564225</v>
       </c>
       <c r="J24">
-        <v>1.012716351881331</v>
+        <v>1.06926166455445</v>
       </c>
       <c r="K24">
-        <v>1.014901267310589</v>
+        <v>1.075827910522364</v>
       </c>
       <c r="L24">
-        <v>1.007070072219456</v>
+        <v>1.061877315150931</v>
       </c>
       <c r="M24">
-        <v>1.019274509735135</v>
+        <v>1.081695295750829</v>
       </c>
       <c r="N24">
-        <v>1.014154525261192</v>
+        <v>1.070780138764145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001854951848602</v>
+        <v>1.066218454481262</v>
       </c>
       <c r="D25">
-        <v>1.01695472234671</v>
+        <v>1.075438939522638</v>
       </c>
       <c r="E25">
-        <v>1.007406840715719</v>
+        <v>1.061158897926343</v>
       </c>
       <c r="F25">
-        <v>1.021741110330216</v>
+        <v>1.081395705090347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044232011957968</v>
+        <v>1.04482160747033</v>
       </c>
       <c r="J25">
-        <v>1.026320050318181</v>
+        <v>1.071634121299006</v>
       </c>
       <c r="K25">
-        <v>1.029295418427798</v>
+        <v>1.078371892935471</v>
       </c>
       <c r="L25">
-        <v>1.019891252939439</v>
+        <v>1.064133807514384</v>
       </c>
       <c r="M25">
-        <v>1.034011044486926</v>
+        <v>1.084311512813924</v>
       </c>
       <c r="N25">
-        <v>1.027777542510187</v>
+        <v>1.073155964669403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.06857615587679</v>
+        <v>1.014650962794642</v>
       </c>
       <c r="D2">
-        <v>1.07770985698997</v>
+        <v>1.028904154514488</v>
       </c>
       <c r="E2">
-        <v>1.063204140654213</v>
+        <v>1.01818976781407</v>
       </c>
       <c r="F2">
-        <v>1.083722961351984</v>
+        <v>1.033943487861576</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045368216597133</v>
+        <v>1.047987062815105</v>
       </c>
       <c r="J2">
-        <v>1.073515261071374</v>
+        <v>1.036402125417935</v>
       </c>
       <c r="K2">
-        <v>1.080390442426415</v>
+        <v>1.039974975953796</v>
       </c>
       <c r="L2">
-        <v>1.065923413181704</v>
+        <v>1.029401375783125</v>
       </c>
       <c r="M2">
-        <v>1.08638783758129</v>
+        <v>1.044949354055734</v>
       </c>
       <c r="N2">
-        <v>1.075039775876017</v>
+        <v>1.037873935313013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.070282543834819</v>
+        <v>1.023470840311116</v>
       </c>
       <c r="D3">
-        <v>1.079353904945833</v>
+        <v>1.037153689306573</v>
       </c>
       <c r="E3">
-        <v>1.064684570457173</v>
+        <v>1.025636184526672</v>
       </c>
       <c r="F3">
-        <v>1.085408002656506</v>
+        <v>1.042369510805117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045759729291559</v>
+        <v>1.050544669673748</v>
       </c>
       <c r="J3">
-        <v>1.074874907245315</v>
+        <v>1.043341492267559</v>
       </c>
       <c r="K3">
-        <v>1.081850220615813</v>
+        <v>1.047332267079393</v>
       </c>
       <c r="L3">
-        <v>1.067217138152889</v>
+        <v>1.035951225754179</v>
       </c>
       <c r="M3">
-        <v>1.087889663993227</v>
+        <v>1.05248751551008</v>
       </c>
       <c r="N3">
-        <v>1.076401352903478</v>
+        <v>1.044823156859521</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.071384231814859</v>
+        <v>1.028982882405534</v>
       </c>
       <c r="D4">
-        <v>1.080415557570573</v>
+        <v>1.042314711772078</v>
       </c>
       <c r="E4">
-        <v>1.065640453174503</v>
+        <v>1.030295525230216</v>
       </c>
       <c r="F4">
-        <v>1.08649622241468</v>
+        <v>1.047641795333759</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04601060252483</v>
+        <v>1.05212840182989</v>
       </c>
       <c r="J4">
-        <v>1.075751880320371</v>
+        <v>1.047673176745646</v>
       </c>
       <c r="K4">
-        <v>1.082792156361305</v>
+        <v>1.05192791178246</v>
       </c>
       <c r="L4">
-        <v>1.068051700978114</v>
+        <v>1.040041558748921</v>
       </c>
       <c r="M4">
-        <v>1.088858854783705</v>
+        <v>1.057197316666418</v>
       </c>
       <c r="N4">
-        <v>1.077279571380891</v>
+        <v>1.049160992826417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07184680564474</v>
+        <v>1.031256494432808</v>
       </c>
       <c r="D5">
-        <v>1.080861371791513</v>
+        <v>1.044444746576102</v>
       </c>
       <c r="E5">
-        <v>1.066041824736313</v>
+        <v>1.032218655994295</v>
       </c>
       <c r="F5">
-        <v>1.086953215682903</v>
+        <v>1.049817951950293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04611548382185</v>
+        <v>1.052778071806836</v>
       </c>
       <c r="J5">
-        <v>1.076119897623422</v>
+        <v>1.04945861040253</v>
       </c>
       <c r="K5">
-        <v>1.083187525337855</v>
+        <v>1.053822884739903</v>
       </c>
       <c r="L5">
-        <v>1.068401946994975</v>
+        <v>1.041727925810864</v>
       </c>
       <c r="M5">
-        <v>1.089265693260853</v>
+        <v>1.059139640034416</v>
       </c>
       <c r="N5">
-        <v>1.077648111310725</v>
+        <v>1.050948962003886</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.071924440434828</v>
+        <v>1.031635766849607</v>
       </c>
       <c r="D6">
-        <v>1.080936196712166</v>
+        <v>1.044800137010671</v>
       </c>
       <c r="E6">
-        <v>1.066109188847647</v>
+        <v>1.032539532811417</v>
       </c>
       <c r="F6">
-        <v>1.087029918221363</v>
+        <v>1.050181049540413</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04613305960247</v>
+        <v>1.052886233313159</v>
       </c>
       <c r="J6">
-        <v>1.076181650814722</v>
+        <v>1.049756368636594</v>
       </c>
       <c r="K6">
-        <v>1.083253873436721</v>
+        <v>1.054138954493951</v>
       </c>
       <c r="L6">
-        <v>1.068460719688663</v>
+        <v>1.042009186516694</v>
       </c>
       <c r="M6">
-        <v>1.089333967818873</v>
+        <v>1.059463623861905</v>
       </c>
       <c r="N6">
-        <v>1.07770995219864</v>
+        <v>1.051247143088797</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.071390414993717</v>
+        <v>1.029013430250143</v>
       </c>
       <c r="D7">
-        <v>1.080421516528397</v>
+        <v>1.042343325850334</v>
       </c>
       <c r="E7">
-        <v>1.065645818198842</v>
+        <v>1.03032135929592</v>
       </c>
       <c r="F7">
-        <v>1.086502330706973</v>
+        <v>1.047671028195685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046012006250796</v>
+        <v>1.052137144990214</v>
       </c>
       <c r="J7">
-        <v>1.075756800373302</v>
+        <v>1.047697170771437</v>
       </c>
       <c r="K7">
-        <v>1.082797441725359</v>
+        <v>1.05195337494748</v>
       </c>
       <c r="L7">
-        <v>1.068056383343391</v>
+        <v>1.040064219823155</v>
       </c>
       <c r="M7">
-        <v>1.088864293358375</v>
+        <v>1.057223414988135</v>
       </c>
       <c r="N7">
-        <v>1.077284498420862</v>
+        <v>1.049185020926478</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06915335466437</v>
+        <v>1.017673986726628</v>
       </c>
       <c r="D8">
-        <v>1.078265924240641</v>
+        <v>1.031730487710363</v>
       </c>
       <c r="E8">
-        <v>1.063704890420958</v>
+        <v>1.02074076554832</v>
       </c>
       <c r="F8">
-        <v>1.084292874009708</v>
+        <v>1.036830106308746</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045501041974179</v>
+        <v>1.048866744449087</v>
       </c>
       <c r="J8">
-        <v>1.073975347680123</v>
+        <v>1.038781637644694</v>
       </c>
       <c r="K8">
-        <v>1.080884334125436</v>
+        <v>1.042497141110137</v>
       </c>
       <c r="L8">
-        <v>1.066361170215214</v>
+        <v>1.031646932010464</v>
       </c>
       <c r="M8">
-        <v>1.08689593006817</v>
+        <v>1.047533271781609</v>
       </c>
       <c r="N8">
-        <v>1.075500515860524</v>
+        <v>1.040256826720069</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.065191952553679</v>
+        <v>0.99604394216687</v>
       </c>
       <c r="D9">
-        <v>1.074450453738555</v>
+        <v>1.011535722383584</v>
       </c>
       <c r="E9">
-        <v>1.06026853037189</v>
+        <v>1.002518288930702</v>
       </c>
       <c r="F9">
-        <v>1.080382795982733</v>
+        <v>1.016208363484754</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044581645540955</v>
+        <v>1.042511775968516</v>
       </c>
       <c r="J9">
-        <v>1.070814224165494</v>
+        <v>1.021737176655238</v>
       </c>
       <c r="K9">
-        <v>1.077492500119106</v>
+        <v>1.024444372565827</v>
       </c>
       <c r="L9">
-        <v>1.06335392169161</v>
+        <v>1.015570640359917</v>
       </c>
       <c r="M9">
-        <v>1.083407078807398</v>
+        <v>1.02904383302694</v>
       </c>
       <c r="N9">
-        <v>1.072334903187917</v>
+        <v>1.02318816064098</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062537146503681</v>
+        <v>0.9802632660135733</v>
       </c>
       <c r="D10">
-        <v>1.071894609341644</v>
+        <v>0.9968438690207726</v>
       </c>
       <c r="E10">
-        <v>1.057966082247328</v>
+        <v>0.9892698508115372</v>
       </c>
       <c r="F10">
-        <v>1.077764072024835</v>
+        <v>1.001210850895012</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043955708173213</v>
+        <v>1.037801199934644</v>
       </c>
       <c r="J10">
-        <v>1.068691381738865</v>
+        <v>1.009282439024932</v>
       </c>
       <c r="K10">
-        <v>1.075216679173049</v>
+        <v>1.011270343170748</v>
       </c>
       <c r="L10">
-        <v>1.061334991708064</v>
+        <v>1.003835582242202</v>
       </c>
       <c r="M10">
-        <v>1.0810668013633</v>
+        <v>1.015558277416372</v>
       </c>
       <c r="N10">
-        <v>1.070209046081549</v>
+        <v>1.010715735854661</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061384113324555</v>
+        <v>0.9730378497948761</v>
       </c>
       <c r="D11">
-        <v>1.070784841864867</v>
+        <v>0.9901290509699511</v>
       </c>
       <c r="E11">
-        <v>1.056966213446159</v>
+        <v>0.9832175936375415</v>
       </c>
       <c r="F11">
-        <v>1.076627119169839</v>
+        <v>0.9943575601643596</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043681535097239</v>
+        <v>1.035628264845464</v>
       </c>
       <c r="J11">
-        <v>1.06776836266352</v>
+        <v>1.003576952555498</v>
       </c>
       <c r="K11">
-        <v>1.074227607706772</v>
+        <v>1.00523955105007</v>
       </c>
       <c r="L11">
-        <v>1.06045729317896</v>
+        <v>0.9984630966276248</v>
       </c>
       <c r="M11">
-        <v>1.080049869000018</v>
+        <v>1.009386674918184</v>
       </c>
       <c r="N11">
-        <v>1.069284716213246</v>
+        <v>1.005002146940012</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.060955286099508</v>
+        <v>0.9702878981021494</v>
       </c>
       <c r="D12">
-        <v>1.070372149221565</v>
+        <v>0.9875754592469818</v>
       </c>
       <c r="E12">
-        <v>1.056594370267983</v>
+        <v>0.9809164805503835</v>
       </c>
       <c r="F12">
-        <v>1.076204334666489</v>
+        <v>0.9917514974219688</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043579219142487</v>
+        <v>1.034798985567985</v>
       </c>
       <c r="J12">
-        <v>1.067424926561356</v>
+        <v>1.001405219202978</v>
       </c>
       <c r="K12">
-        <v>1.073859664452387</v>
+        <v>1.00294462879489</v>
       </c>
       <c r="L12">
-        <v>1.060130740960965</v>
+        <v>0.9964186565313242</v>
       </c>
       <c r="M12">
-        <v>1.079671584091073</v>
+        <v>1.007038450483927</v>
       </c>
       <c r="N12">
-        <v>1.068940792392424</v>
+        <v>1.00282732947703</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061047295658307</v>
+        <v>0.9708808926850374</v>
       </c>
       <c r="D13">
-        <v>1.070460694948078</v>
+        <v>0.9881260157939695</v>
       </c>
       <c r="E13">
-        <v>1.056674152341822</v>
+        <v>0.9814125779365798</v>
       </c>
       <c r="F13">
-        <v>1.076295044864471</v>
+        <v>0.9923133581556821</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043601187867376</v>
+        <v>1.034977909686327</v>
       </c>
       <c r="J13">
-        <v>1.067498621480943</v>
+        <v>1.001873536329995</v>
       </c>
       <c r="K13">
-        <v>1.07393861499868</v>
+        <v>1.003439481912807</v>
       </c>
       <c r="L13">
-        <v>1.060200811961739</v>
+        <v>0.9968594987900634</v>
       </c>
       <c r="M13">
-        <v>1.079752752639363</v>
+        <v>1.00754478426956</v>
       </c>
       <c r="N13">
-        <v>1.069014591967249</v>
+        <v>1.003296311668084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061348677427408</v>
+        <v>0.972811932538166</v>
       </c>
       <c r="D14">
-        <v>1.070750738347732</v>
+        <v>0.989919222875727</v>
       </c>
       <c r="E14">
-        <v>1.056935485973316</v>
+        <v>0.9830285007741305</v>
       </c>
       <c r="F14">
-        <v>1.076592181335714</v>
+        <v>0.9941434166803816</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043673087361717</v>
+        <v>1.035560181983307</v>
       </c>
       <c r="J14">
-        <v>1.067739986150444</v>
+        <v>1.003398541877428</v>
       </c>
       <c r="K14">
-        <v>1.074197204864621</v>
+        <v>1.005051007361026</v>
       </c>
       <c r="L14">
-        <v>1.060430311271721</v>
+        <v>0.9982951320633381</v>
       </c>
       <c r="M14">
-        <v>1.080018611169722</v>
+        <v>1.009193746333277</v>
       </c>
       <c r="N14">
-        <v>1.069256299402266</v>
+        <v>1.004823482898316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061534296734732</v>
+        <v>0.9739927137611897</v>
       </c>
       <c r="D15">
-        <v>1.070929380206435</v>
+        <v>0.9910159959821063</v>
       </c>
       <c r="E15">
-        <v>1.057096442584704</v>
+        <v>0.984016911955895</v>
       </c>
       <c r="F15">
-        <v>1.076775194256146</v>
+        <v>0.9952627540605065</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043717323823472</v>
+        <v>1.035915933294663</v>
       </c>
       <c r="J15">
-        <v>1.067888620894544</v>
+        <v>1.004331015434557</v>
       </c>
       <c r="K15">
-        <v>1.074356456264786</v>
+        <v>1.006036467460806</v>
       </c>
       <c r="L15">
-        <v>1.060571642003476</v>
+        <v>0.9991730305695345</v>
       </c>
       <c r="M15">
-        <v>1.080182341969765</v>
+        <v>1.010202136401156</v>
       </c>
       <c r="N15">
-        <v>1.069405145224751</v>
+        <v>1.005757280674851</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062613594753084</v>
+        <v>0.9807339434069458</v>
       </c>
       <c r="D16">
-        <v>1.071968195050867</v>
+        <v>0.9972815508717584</v>
       </c>
       <c r="E16">
-        <v>1.058032378204946</v>
+        <v>0.9896644114750636</v>
       </c>
       <c r="F16">
-        <v>1.077839462795623</v>
+        <v>1.001657584257819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043973837646765</v>
+        <v>1.037942429081042</v>
       </c>
       <c r="J16">
-        <v>1.068752558034196</v>
+        <v>1.009654059807333</v>
       </c>
       <c r="K16">
-        <v>1.075282243060681</v>
+        <v>1.011663239197693</v>
       </c>
       <c r="L16">
-        <v>1.061393167165855</v>
+        <v>1.00418558499944</v>
       </c>
       <c r="M16">
-        <v>1.08113421530056</v>
+        <v>1.015960384912215</v>
       </c>
       <c r="N16">
-        <v>1.070270309254236</v>
+        <v>1.011087884381199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063289665820089</v>
+        <v>0.984852821035245</v>
       </c>
       <c r="D17">
-        <v>1.07261898414504</v>
+        <v>1.001113060860544</v>
       </c>
       <c r="E17">
-        <v>1.058618682306001</v>
+        <v>0.9931187635321295</v>
       </c>
       <c r="F17">
-        <v>1.078506229328382</v>
+        <v>1.005568470220329</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04413389874561</v>
+        <v>1.03917652696099</v>
       </c>
       <c r="J17">
-        <v>1.069293452882404</v>
+        <v>1.012905790434422</v>
       </c>
       <c r="K17">
-        <v>1.075861984528186</v>
+        <v>1.015101602193807</v>
       </c>
       <c r="L17">
-        <v>1.061907545932369</v>
+        <v>1.007248531180934</v>
       </c>
       <c r="M17">
-        <v>1.081730333144322</v>
+        <v>1.01947956338626</v>
       </c>
       <c r="N17">
-        <v>1.07081197223517</v>
+        <v>1.014344232838757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063683671496067</v>
+        <v>0.9872179876155266</v>
       </c>
       <c r="D18">
-        <v>1.072998283181778</v>
+        <v>1.003314323399903</v>
       </c>
       <c r="E18">
-        <v>1.058960385243426</v>
+        <v>0.9951036038270221</v>
       </c>
       <c r="F18">
-        <v>1.078894851796125</v>
+        <v>1.007815449727599</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044226957199257</v>
+        <v>1.039883663041444</v>
       </c>
       <c r="J18">
-        <v>1.069608580534457</v>
+        <v>1.014772735462855</v>
       </c>
       <c r="K18">
-        <v>1.076199788969892</v>
+        <v>1.01707609149702</v>
       </c>
       <c r="L18">
-        <v>1.062207238575595</v>
+        <v>1.009007394106267</v>
       </c>
       <c r="M18">
-        <v>1.082077694413752</v>
+        <v>1.021500628336464</v>
       </c>
       <c r="N18">
-        <v>1.071127547404636</v>
+        <v>1.016213829143272</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.06381796088069</v>
+        <v>0.9880183191434685</v>
       </c>
       <c r="D19">
-        <v>1.073127564707013</v>
+        <v>1.004059375066099</v>
       </c>
       <c r="E19">
-        <v>1.059076850286779</v>
+        <v>0.9957754460274101</v>
       </c>
       <c r="F19">
-        <v>1.079027313068101</v>
+        <v>1.008575994267196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04425863655423</v>
+        <v>1.040122684602379</v>
       </c>
       <c r="J19">
-        <v>1.069715969024229</v>
+        <v>1.015404424596345</v>
       </c>
       <c r="K19">
-        <v>1.076314912767742</v>
+        <v>1.017744234992476</v>
       </c>
       <c r="L19">
-        <v>1.062309369421399</v>
+        <v>1.009602564033876</v>
       </c>
       <c r="M19">
-        <v>1.082196077659078</v>
+        <v>1.022184560541308</v>
       </c>
       <c r="N19">
-        <v>1.07123508839838</v>
+        <v>1.016846415347787</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.063217164572275</v>
+        <v>0.9844148110421462</v>
       </c>
       <c r="D20">
-        <v>1.072549191275149</v>
+        <v>1.000705493222818</v>
       </c>
       <c r="E20">
-        <v>1.058555806304641</v>
+        <v>0.9927512874739476</v>
       </c>
       <c r="F20">
-        <v>1.07843472181257</v>
+        <v>1.005152447240568</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044116757023002</v>
+        <v>1.039045447086791</v>
       </c>
       <c r="J20">
-        <v>1.06923545805292</v>
+        <v>1.012560022959943</v>
       </c>
       <c r="K20">
-        <v>1.075799819944816</v>
+        <v>1.014735948716092</v>
       </c>
       <c r="L20">
-        <v>1.061852392776156</v>
+        <v>1.006922805636362</v>
       </c>
       <c r="M20">
-        <v>1.081666411039881</v>
+        <v>1.019105298107952</v>
       </c>
       <c r="N20">
-        <v>1.070753895046376</v>
+        <v>1.013997974334804</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061259943025219</v>
+        <v>0.9722451783258799</v>
       </c>
       <c r="D21">
-        <v>1.070665341040359</v>
+        <v>0.989392864608261</v>
       </c>
       <c r="E21">
-        <v>1.056858542184804</v>
+        <v>0.9825541658035216</v>
       </c>
       <c r="F21">
-        <v>1.076504695132292</v>
+        <v>0.9936062362186593</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043651927924582</v>
+        <v>1.035389347892842</v>
       </c>
       <c r="J21">
-        <v>1.06766892654226</v>
+        <v>1.002950962999519</v>
       </c>
       <c r="K21">
-        <v>1.074121072107445</v>
+        <v>1.004578018013694</v>
       </c>
       <c r="L21">
-        <v>1.060362744333984</v>
+        <v>0.9978737681743478</v>
       </c>
       <c r="M21">
-        <v>1.07994033777757</v>
+        <v>1.008709761385791</v>
       </c>
       <c r="N21">
-        <v>1.069185138881287</v>
+        <v>1.004375268407062</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.06002623160189</v>
+        <v>0.9642066174407099</v>
       </c>
       <c r="D22">
-        <v>1.06947813078802</v>
+        <v>0.9819324366938466</v>
       </c>
       <c r="E22">
-        <v>1.055788810060623</v>
+        <v>0.9758324450868042</v>
       </c>
       <c r="F22">
-        <v>1.075288486481994</v>
+        <v>0.9859928780234336</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043356915983291</v>
+        <v>1.032961088885065</v>
       </c>
       <c r="J22">
-        <v>1.066680590838228</v>
+        <v>0.9966023641241334</v>
       </c>
       <c r="K22">
-        <v>1.07306234117604</v>
+        <v>0.9978705182757561</v>
       </c>
       <c r="L22">
-        <v>1.059423036721592</v>
+        <v>0.9918983654250806</v>
       </c>
       <c r="M22">
-        <v>1.078851892550785</v>
+        <v>1.001847021068716</v>
       </c>
       <c r="N22">
-        <v>1.068195399627193</v>
+        <v>0.9980176537930788</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060680547250201</v>
+        <v>0.9685074383048394</v>
       </c>
       <c r="D23">
-        <v>1.070107759744592</v>
+        <v>0.9859227353213043</v>
       </c>
       <c r="E23">
-        <v>1.05635614551876</v>
+        <v>0.9794273205662806</v>
       </c>
       <c r="F23">
-        <v>1.075933484860117</v>
+        <v>0.990064867417384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043513570063298</v>
+        <v>1.034261447436124</v>
       </c>
       <c r="J23">
-        <v>1.067204852380672</v>
+        <v>0.9999990795586454</v>
       </c>
       <c r="K23">
-        <v>1.073623905646498</v>
+        <v>1.001458907365916</v>
       </c>
       <c r="L23">
-        <v>1.059921491938012</v>
+        <v>0.9950950939516832</v>
       </c>
       <c r="M23">
-        <v>1.079429205327726</v>
+        <v>1.00551830220559</v>
       </c>
       <c r="N23">
-        <v>1.06872040568116</v>
+        <v>1.001419192953116</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.063249925800822</v>
+        <v>0.9846128436606534</v>
       </c>
       <c r="D24">
-        <v>1.072580728581044</v>
+        <v>1.000889758838432</v>
       </c>
       <c r="E24">
-        <v>1.058584218123172</v>
+        <v>0.9929174264592998</v>
       </c>
       <c r="F24">
-        <v>1.078467033880601</v>
+        <v>1.00534053525033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044124503564225</v>
+        <v>1.039104715505354</v>
       </c>
       <c r="J24">
-        <v>1.06926166455445</v>
+        <v>1.01271635188133</v>
       </c>
       <c r="K24">
-        <v>1.075827910522364</v>
+        <v>1.014901267310588</v>
       </c>
       <c r="L24">
-        <v>1.061877315150931</v>
+        <v>1.007070072219455</v>
       </c>
       <c r="M24">
-        <v>1.081695295750829</v>
+        <v>1.019274509735133</v>
       </c>
       <c r="N24">
-        <v>1.070780138764145</v>
+        <v>1.014154525261191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.066218454481262</v>
+        <v>1.0018549518486</v>
       </c>
       <c r="D25">
-        <v>1.075438939522638</v>
+        <v>1.016954722346709</v>
       </c>
       <c r="E25">
-        <v>1.061158897926343</v>
+        <v>1.007406840715718</v>
       </c>
       <c r="F25">
-        <v>1.081395705090347</v>
+        <v>1.021741110330215</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04482160747033</v>
+        <v>1.044232011957968</v>
       </c>
       <c r="J25">
-        <v>1.071634121299006</v>
+        <v>1.026320050318179</v>
       </c>
       <c r="K25">
-        <v>1.078371892935471</v>
+        <v>1.029295418427797</v>
       </c>
       <c r="L25">
-        <v>1.064133807514384</v>
+        <v>1.019891252939437</v>
       </c>
       <c r="M25">
-        <v>1.084311512813924</v>
+        <v>1.034011044486924</v>
       </c>
       <c r="N25">
-        <v>1.073155964669403</v>
+        <v>1.027777542510186</v>
       </c>
     </row>
   </sheetData>
